--- a/matlab_code/tests/ensembleFxns/testFiles/methionine_cycle_atp_change.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/methionine_cycle_atp_change.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="152">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">methionine</t>
@@ -650,11 +647,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -733,7 +730,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -879,32 +876,32 @@
   </cols>
   <sheetData>
     <row r="1" s="19" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1310,66 +1307,66 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="10" t="n">
+      <c r="B2" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="C2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="n">
+      <c r="C2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="E2" s="10" t="n">
+      <c r="E2" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="F2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="10" t="n">
+      <c r="F2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="H2" s="10" t="n">
+      <c r="H2" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="I2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="10" t="n">
+      <c r="I2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1377,31 +1374,31 @@
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="10" t="n">
+      <c r="B3" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="C3" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="n">
+      <c r="C3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="F3" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10" t="n">
+      <c r="F3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="H3" s="10" t="n">
+      <c r="H3" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="I3" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="10" t="n">
+      <c r="I3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1409,31 +1406,31 @@
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="C4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="n">
+      <c r="C4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="F4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10" t="n">
+      <c r="F4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="H4" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="I4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="10" t="n">
+      <c r="I4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1441,31 +1438,31 @@
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="C5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10" t="n">
+      <c r="C5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="F5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10" t="n">
+      <c r="F5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="H5" s="10" t="n">
+      <c r="H5" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="I5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="10" t="n">
+      <c r="I5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1473,31 +1470,31 @@
       <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="C6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10" t="n">
+      <c r="C6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="E6" s="10" t="n">
+      <c r="E6" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="F6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10" t="n">
+      <c r="F6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="H6" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="I6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="10" t="n">
+      <c r="I6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1505,31 +1502,31 @@
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="C7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10" t="n">
+      <c r="C7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="F7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10" t="n">
+      <c r="F7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="H7" s="10" t="n">
+      <c r="H7" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="I7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="10" t="n">
+      <c r="I7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1537,31 +1534,31 @@
       <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="10" t="n">
+      <c r="B8" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="C8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10" t="n">
+      <c r="C8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="F8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10" t="n">
+      <c r="F8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="H8" s="10" t="n">
+      <c r="H8" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="I8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="10" t="n">
+      <c r="I8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1569,31 +1566,31 @@
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="C9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="10" t="n">
+      <c r="C9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="F9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10" t="n">
+      <c r="F9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="H9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10" t="n">
+      <c r="H9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1601,31 +1598,31 @@
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="10" t="n">
+      <c r="B10" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="C10" s="10" t="n">
+      <c r="C10" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="E10" s="10" t="n">
+      <c r="E10" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="F10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10" t="n">
+      <c r="F10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="H10" s="10" t="n">
+      <c r="H10" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="I10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="10" t="n">
+      <c r="I10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1633,31 +1630,31 @@
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="C11" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10" t="n">
+      <c r="C11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="E11" s="10" t="n">
+      <c r="E11" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="F11" s="10" t="n">
+      <c r="F11" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="G11" s="10" t="n">
+      <c r="G11" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="H11" s="10" t="n">
+      <c r="H11" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="I11" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="10" t="n">
+      <c r="I11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1665,31 +1662,31 @@
       <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="C12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="10" t="n">
+      <c r="C12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="E12" s="10" t="n">
+      <c r="E12" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="F12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10" t="n">
+      <c r="F12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="H12" s="10" t="n">
+      <c r="H12" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="I12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="10" t="n">
+      <c r="I12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1735,35 +1732,35 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,41 +2507,41 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2552,7 +2549,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2572,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2580,10 +2577,10 @@
         <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>125</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>126</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -2600,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2608,10 +2605,10 @@
         <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>125</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -2626,7 +2623,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2634,13 +2631,13 @@
         <v>42</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>26</v>
@@ -2652,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2660,13 +2657,13 @@
         <v>43</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="D6" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>1</v>
@@ -2675,7 +2672,7 @@
         <v>4</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2683,22 +2680,22 @@
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="24" t="s">
         <v>137</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2706,22 +2703,22 @@
         <v>45</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="J8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,22 +2726,22 @@
         <v>46</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="J9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="24" t="s">
         <v>143</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2752,10 +2749,10 @@
         <v>47</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>31</v>
@@ -2770,7 +2767,7 @@
         <v>2</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2778,13 +2775,13 @@
         <v>48</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="D11" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>20</v>
@@ -2796,7 +2793,7 @@
         <v>2</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2804,7 +2801,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2820,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3744,10 +3741,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3755,11 +3752,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="30.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1010" min="6" style="0" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="1011" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1009" min="5" style="0" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="1010" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3772,9 +3768,6 @@
       <c r="C1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
@@ -3786,22 +3779,16 @@
       <c r="C2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3809,13 +3796,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3823,13 +3807,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3837,12 +3818,9 @@
         <v>21</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3851,87 +3829,69 @@
         <v>22</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3945,21 +3905,15 @@
       <c r="C13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3968,12 +3922,9 @@
         <v>30</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3982,12 +3933,9 @@
         <v>31</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,12 +3944,9 @@
         <v>32</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4010,12 +3955,9 @@
         <v>33</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4024,12 +3966,9 @@
         <v>34</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4043,9 +3982,6 @@
       <c r="C20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
@@ -4057,21 +3993,15 @@
       <c r="C21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D21" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4080,12 +4010,9 @@
         <v>38</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4123,16 +4050,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4140,7 +4067,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="7" t="n">
         <v>0</v>
@@ -4151,7 +4078,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="7" t="n">
         <v>0</v>
@@ -4162,7 +4089,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="7" t="n">
         <v>0</v>
@@ -4173,7 +4100,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="7" t="n">
         <v>0</v>
@@ -4184,7 +4111,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="7" t="n">
         <v>0</v>
@@ -4195,7 +4122,7 @@
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="7" t="n">
         <v>0</v>
@@ -4206,7 +4133,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="7" t="n">
         <v>0</v>
@@ -4217,7 +4144,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="7" t="n">
         <v>0</v>
@@ -4228,7 +4155,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="7" t="n">
         <v>0</v>
@@ -4239,7 +4166,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="7" t="n">
         <v>0</v>
@@ -4250,7 +4177,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="7" t="n">
         <v>1</v>
@@ -4289,19 +4216,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4406,14 +4333,14 @@
       <c r="A1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4450,7 +4377,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4458,7 +4385,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4581,14 +4508,14 @@
       <c r="A1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4613,12 +4540,12 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4733,13 +4660,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4899,10 +4826,10 @@
         <v>50</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4984,7 +4911,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="16" t="n">
         <v>0.001</v>
@@ -5006,7 +4933,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="17" t="n">
         <v>0.001</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/methionine_cycle_atp_change.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/methionine_cycle_atp_change.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="151">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -290,9 +289,6 @@
   </si>
   <si>
     <t xml:space="preserve">methionine influx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref</t>
   </si>
   <si>
     <t xml:space="preserve">exp1</t>
@@ -610,7 +606,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -652,10 +648,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -854,436 +846,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="10" style="0" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="8.67"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="19" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="20" t="n">
-        <v>0.1382</v>
-      </c>
-      <c r="C2" s="21" t="n">
-        <f aca="false">0.15*B2</f>
-        <v>0.02073</v>
-      </c>
-      <c r="D2" s="20" t="n">
-        <v>0.1325</v>
-      </c>
-      <c r="E2" s="21" t="n">
-        <f aca="false">0.15*D2</f>
-        <v>0.019875</v>
-      </c>
-      <c r="F2" s="20" t="n">
-        <v>0.1347</v>
-      </c>
-      <c r="G2" s="21" t="n">
-        <f aca="false">0.15*F2</f>
-        <v>0.020205</v>
-      </c>
-      <c r="H2" s="20" t="n">
-        <v>0.1075</v>
-      </c>
-      <c r="I2" s="21" t="n">
-        <f aca="false">0.15*H2</f>
-        <v>0.016125</v>
-      </c>
-    </row>
-    <row r="3" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="20" t="n">
-        <v>0.8148</v>
-      </c>
-      <c r="C3" s="21" t="n">
-        <f aca="false">0.15*B3</f>
-        <v>0.12222</v>
-      </c>
-      <c r="D3" s="20" t="n">
-        <v>0.8687</v>
-      </c>
-      <c r="E3" s="21" t="n">
-        <f aca="false">0.15*D3</f>
-        <v>0.130305</v>
-      </c>
-      <c r="F3" s="20" t="n">
-        <v>0.856</v>
-      </c>
-      <c r="G3" s="21" t="n">
-        <f aca="false">0.15*F3</f>
-        <v>0.1284</v>
-      </c>
-      <c r="H3" s="20" t="n">
-        <v>0.7304</v>
-      </c>
-      <c r="I3" s="21" t="n">
-        <f aca="false">0.15*H3</f>
-        <v>0.10956</v>
-      </c>
-    </row>
-    <row r="4" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="20" t="n">
-        <v>0.2491</v>
-      </c>
-      <c r="C4" s="21" t="n">
-        <f aca="false">0.15*B4</f>
-        <v>0.037365</v>
-      </c>
-      <c r="D4" s="20" t="n">
-        <v>0.158</v>
-      </c>
-      <c r="E4" s="21" t="n">
-        <f aca="false">0.15*D4</f>
-        <v>0.0237</v>
-      </c>
-      <c r="F4" s="20" t="n">
-        <v>0.1836</v>
-      </c>
-      <c r="G4" s="21" t="n">
-        <f aca="false">0.15*F4</f>
-        <v>0.02754</v>
-      </c>
-      <c r="H4" s="20" t="n">
-        <v>0.0578</v>
-      </c>
-      <c r="I4" s="21" t="n">
-        <f aca="false">0.15*H4</f>
-        <v>0.00867</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="20" t="n">
-        <v>1.0164</v>
-      </c>
-      <c r="C5" s="21" t="n">
-        <f aca="false">0.15*B5</f>
-        <v>0.15246</v>
-      </c>
-      <c r="D5" s="20" t="n">
-        <v>1.0037</v>
-      </c>
-      <c r="E5" s="21" t="n">
-        <f aca="false">0.15*D5</f>
-        <v>0.150555</v>
-      </c>
-      <c r="F5" s="20" t="n">
-        <v>0.9685</v>
-      </c>
-      <c r="G5" s="21" t="n">
-        <f aca="false">0.15*F5</f>
-        <v>0.145275</v>
-      </c>
-      <c r="H5" s="20" t="n">
-        <v>0.785</v>
-      </c>
-      <c r="I5" s="21" t="n">
-        <f aca="false">0.15*H5</f>
-        <v>0.11775</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="20" t="n">
-        <v>0.0475</v>
-      </c>
-      <c r="C6" s="21" t="n">
-        <f aca="false">0.15*B6</f>
-        <v>0.007125</v>
-      </c>
-      <c r="D6" s="20" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="E6" s="21" t="n">
-        <f aca="false">0.15*D6</f>
-        <v>0.00345</v>
-      </c>
-      <c r="F6" s="20" t="n">
-        <v>0.071</v>
-      </c>
-      <c r="G6" s="21" t="n">
-        <f aca="false">0.15*F6</f>
-        <v>0.01065</v>
-      </c>
-      <c r="H6" s="20" t="n">
-        <v>0.0031</v>
-      </c>
-      <c r="I6" s="21" t="n">
-        <f aca="false">0.15*H6</f>
-        <v>0.000465</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="20" t="n">
-        <v>1.0639</v>
-      </c>
-      <c r="C7" s="21" t="n">
-        <f aca="false">0.15*B7</f>
-        <v>0.159585</v>
-      </c>
-      <c r="D7" s="20" t="n">
-        <v>1.0267</v>
-      </c>
-      <c r="E7" s="21" t="n">
-        <f aca="false">0.15*D7</f>
-        <v>0.154005</v>
-      </c>
-      <c r="F7" s="20" t="n">
-        <v>1.0396</v>
-      </c>
-      <c r="G7" s="21" t="n">
-        <f aca="false">0.15*F7</f>
-        <v>0.15594</v>
-      </c>
-      <c r="H7" s="20" t="n">
-        <v>0.7881</v>
-      </c>
-      <c r="I7" s="21" t="n">
-        <f aca="false">0.15*H7</f>
-        <v>0.118215</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="20" t="n">
-        <v>0.0852</v>
-      </c>
-      <c r="C8" s="21" t="n">
-        <f aca="false">0.15*B8</f>
-        <v>0.01278</v>
-      </c>
-      <c r="D8" s="20" t="n">
-        <v>0.0878</v>
-      </c>
-      <c r="E8" s="21" t="n">
-        <f aca="false">0.15*D8</f>
-        <v>0.01317</v>
-      </c>
-      <c r="F8" s="20" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="G8" s="21" t="n">
-        <f aca="false">0.15*F8</f>
-        <v>0.00315</v>
-      </c>
-      <c r="H8" s="20" t="n">
-        <v>0.1343</v>
-      </c>
-      <c r="I8" s="21" t="n">
-        <f aca="false">0.15*H8</f>
-        <v>0.020145</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="20" t="n">
-        <v>0.3556</v>
-      </c>
-      <c r="C9" s="21" t="n">
-        <f aca="false">0.15*B9</f>
-        <v>0.05334</v>
-      </c>
-      <c r="D9" s="20" t="n">
-        <v>0.3102</v>
-      </c>
-      <c r="E9" s="21" t="n">
-        <f aca="false">0.15*D9</f>
-        <v>0.04653</v>
-      </c>
-      <c r="F9" s="20" t="n">
-        <v>0.392</v>
-      </c>
-      <c r="G9" s="21" t="n">
-        <f aca="false">0.15*F9</f>
-        <v>0.0588</v>
-      </c>
-      <c r="H9" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="21" t="n">
-        <f aca="false">0.15*H9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="20" t="n">
-        <v>0.6231</v>
-      </c>
-      <c r="C10" s="21" t="n">
-        <f aca="false">0.15*B10</f>
-        <v>0.093465</v>
-      </c>
-      <c r="D10" s="20" t="n">
-        <v>0.6288</v>
-      </c>
-      <c r="E10" s="21" t="n">
-        <f aca="false">0.15*D10</f>
-        <v>0.09432</v>
-      </c>
-      <c r="F10" s="20" t="n">
-        <v>0.6266</v>
-      </c>
-      <c r="G10" s="21" t="n">
-        <f aca="false">0.15*F10</f>
-        <v>0.09399</v>
-      </c>
-      <c r="H10" s="20" t="n">
-        <v>0.6538</v>
-      </c>
-      <c r="I10" s="21" t="n">
-        <f aca="false">0.15*H10</f>
-        <v>0.09807</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="20" t="n">
-        <v>0.0852</v>
-      </c>
-      <c r="C11" s="21" t="n">
-        <f aca="false">0.15*B11</f>
-        <v>0.01278</v>
-      </c>
-      <c r="D11" s="20" t="n">
-        <v>0.0878</v>
-      </c>
-      <c r="E11" s="21" t="n">
-        <f aca="false">0.15*D11</f>
-        <v>0.01317</v>
-      </c>
-      <c r="F11" s="20" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="G11" s="21" t="n">
-        <f aca="false">0.15*F11</f>
-        <v>0.00315</v>
-      </c>
-      <c r="H11" s="20" t="n">
-        <v>0.1343</v>
-      </c>
-      <c r="I11" s="21" t="n">
-        <f aca="false">0.15*H11</f>
-        <v>0.020145</v>
-      </c>
-    </row>
-    <row r="12" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="20" t="n">
-        <v>0.7613</v>
-      </c>
-      <c r="C12" s="21" t="n">
-        <f aca="false">0.15*B12</f>
-        <v>0.114195</v>
-      </c>
-      <c r="D12" s="20" t="n">
-        <v>0.7613</v>
-      </c>
-      <c r="E12" s="21" t="n">
-        <f aca="false">0.15*D12</f>
-        <v>0.114195</v>
-      </c>
-      <c r="F12" s="20" t="n">
-        <v>0.7613</v>
-      </c>
-      <c r="G12" s="21" t="n">
-        <f aca="false">0.15*F12</f>
-        <v>0.114195</v>
-      </c>
-      <c r="H12" s="20" t="n">
-        <v>0.7613</v>
-      </c>
-      <c r="I12" s="21" t="n">
-        <f aca="false">0.15*H12</f>
-        <v>0.114195</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -1308,34 +870,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1706,7 +1268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1735,63 +1297,63 @@
       <c r="A1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="22" t="n">
+      <c r="B2" s="21" t="n">
         <v>0.9</v>
       </c>
-      <c r="C2" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22" t="n">
+      <c r="C2" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21" t="n">
         <v>1.1</v>
       </c>
-      <c r="E2" s="22" t="n">
+      <c r="E2" s="21" t="n">
         <v>0.9</v>
       </c>
-      <c r="F2" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="22" t="n">
+      <c r="F2" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="21" t="n">
         <v>1.1</v>
       </c>
-      <c r="H2" s="22" t="n">
+      <c r="H2" s="21" t="n">
         <v>0.9</v>
       </c>
-      <c r="I2" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="22" t="n">
+      <c r="I2" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="21" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -1799,31 +1361,31 @@
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="22" t="n">
+      <c r="B3" s="21" t="n">
         <v>0.001</v>
       </c>
-      <c r="C3" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="22" t="n">
+      <c r="C3" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="22" t="n">
+      <c r="E3" s="21" t="n">
         <v>0.001</v>
       </c>
-      <c r="F3" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="22" t="n">
+      <c r="F3" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="H3" s="22" t="n">
+      <c r="H3" s="21" t="n">
         <v>0.001</v>
       </c>
-      <c r="I3" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="22" t="n">
+      <c r="I3" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1831,31 +1393,31 @@
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="22" t="n">
+      <c r="B4" s="21" t="n">
         <v>0.001</v>
       </c>
-      <c r="C4" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="22" t="n">
+      <c r="C4" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="E4" s="22" t="n">
+      <c r="E4" s="21" t="n">
         <v>0.001</v>
       </c>
-      <c r="F4" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="22" t="n">
+      <c r="F4" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="H4" s="22" t="n">
+      <c r="H4" s="21" t="n">
         <v>0.001</v>
       </c>
-      <c r="I4" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="22" t="n">
+      <c r="I4" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1863,31 +1425,31 @@
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="22" t="n">
+      <c r="B5" s="21" t="n">
         <v>0.001</v>
       </c>
-      <c r="C5" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="22" t="n">
+      <c r="C5" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="22" t="n">
+      <c r="E5" s="21" t="n">
         <v>0.001</v>
       </c>
-      <c r="F5" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="22" t="n">
+      <c r="F5" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="H5" s="22" t="n">
+      <c r="H5" s="21" t="n">
         <v>0.001</v>
       </c>
-      <c r="I5" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="22" t="n">
+      <c r="I5" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1895,31 +1457,31 @@
       <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="22" t="n">
+      <c r="B6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,31 +1489,31 @@
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="22" t="n">
+      <c r="B7" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1959,31 +1521,31 @@
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="22" t="n">
+      <c r="B8" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1991,31 +1553,31 @@
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="22" t="n">
+      <c r="B9" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,31 +1585,31 @@
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="22" t="n">
+      <c r="B10" s="21" t="n">
         <v>0.001</v>
       </c>
-      <c r="C10" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="22" t="n">
+      <c r="C10" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="E10" s="22" t="n">
+      <c r="E10" s="21" t="n">
         <v>0.001</v>
       </c>
-      <c r="F10" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="22" t="n">
+      <c r="F10" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="H10" s="22" t="n">
+      <c r="H10" s="21" t="n">
         <v>0.001</v>
       </c>
-      <c r="I10" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="22" t="n">
+      <c r="I10" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2055,31 +1617,31 @@
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="22" t="n">
+      <c r="B11" s="21" t="n">
         <v>0.001</v>
       </c>
-      <c r="C11" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="22" t="n">
+      <c r="C11" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="22" t="n">
+      <c r="E11" s="21" t="n">
         <v>0.001</v>
       </c>
-      <c r="F11" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="22" t="n">
+      <c r="F11" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="H11" s="22" t="n">
+      <c r="H11" s="21" t="n">
         <v>0.001</v>
       </c>
-      <c r="I11" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="22" t="n">
+      <c r="I11" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2087,31 +1649,31 @@
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="22" t="n">
+      <c r="B12" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2119,31 +1681,31 @@
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="22" t="n">
+      <c r="B13" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2151,31 +1713,31 @@
       <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="22" t="n">
+      <c r="B14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2183,31 +1745,31 @@
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="22" t="n">
+      <c r="B15" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2215,31 +1777,31 @@
       <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="22" t="n">
+      <c r="B16" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2247,31 +1809,31 @@
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="22" t="n">
+      <c r="B17" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2279,31 +1841,31 @@
       <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="22" t="n">
+      <c r="B18" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2311,31 +1873,31 @@
       <c r="A19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="22" t="n">
+      <c r="B19" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2343,31 +1905,31 @@
       <c r="A20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="22" t="n">
+      <c r="B20" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2375,31 +1937,31 @@
       <c r="A21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="22" t="n">
+      <c r="B21" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2407,31 +1969,31 @@
       <c r="A22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="22" t="n">
+      <c r="B22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2439,31 +2001,31 @@
       <c r="A23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="22" t="n">
+      <c r="B23" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,7 +2040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2511,37 +2073,37 @@
         <v>71</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2549,7 +2111,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2569,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2577,10 +2139,10 @@
         <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>124</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -2596,8 +2158,8 @@
       <c r="K3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="23" t="s">
-        <v>126</v>
+      <c r="L3" s="22" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2605,10 +2167,10 @@
         <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>124</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>125</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -2622,8 +2184,8 @@
       <c r="K4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="24" t="s">
-        <v>126</v>
+      <c r="L4" s="23" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2631,13 +2193,13 @@
         <v>42</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>26</v>
@@ -2648,8 +2210,8 @@
       <c r="K5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>130</v>
+      <c r="L5" s="23" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2657,13 +2219,13 @@
         <v>43</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="D6" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>1</v>
@@ -2671,8 +2233,8 @@
       <c r="K6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="L6" s="24" t="s">
-        <v>134</v>
+      <c r="L6" s="23" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2680,22 +2242,22 @@
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="J7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="23" t="s">
         <v>136</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2703,22 +2265,22 @@
         <v>45</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="J8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="23" t="s">
         <v>139</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2726,22 +2288,22 @@
         <v>46</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="J9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="23" t="s">
         <v>142</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2749,10 +2311,10 @@
         <v>47</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>144</v>
+        <v>123</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>31</v>
@@ -2766,8 +2328,8 @@
       <c r="K10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="24" t="s">
-        <v>145</v>
+      <c r="L10" s="23" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2775,13 +2337,13 @@
         <v>48</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="D11" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>20</v>
@@ -2792,8 +2354,8 @@
       <c r="K11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L11" s="24" t="s">
-        <v>149</v>
+      <c r="L11" s="23" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2801,7 +2363,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2817,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3743,7 +3305,7 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -4199,125 +3761,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="4.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="6" style="0" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.67"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4334,13 +3780,13 @@
         <v>50</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4377,7 +3823,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4385,7 +3831,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4395,9 +3841,9 @@
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
@@ -4485,7 +3931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4509,13 +3955,13 @@
         <v>50</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4540,12 +3986,12 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4639,7 +4085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4663,20 +4109,20 @@
         <v>71</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13" t="n">
+      <c r="B2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="n">
         <v>-50</v>
       </c>
     </row>
@@ -4684,10 +4130,10 @@
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="13" t="n">
+      <c r="B3" s="12" t="n">
         <v>-133.737743483803</v>
       </c>
-      <c r="C3" s="13" t="n">
+      <c r="C3" s="12" t="n">
         <v>-115.839227967117</v>
       </c>
     </row>
@@ -4695,10 +4141,10 @@
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="14" t="n">
+      <c r="B4" s="13" t="n">
         <v>-133.737743483803</v>
       </c>
-      <c r="C4" s="14" t="n">
+      <c r="C4" s="13" t="n">
         <v>-115.839227967117</v>
       </c>
     </row>
@@ -4706,10 +4152,10 @@
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="13" t="n">
         <v>-13.9969595717307</v>
       </c>
-      <c r="C5" s="14" t="n">
+      <c r="C5" s="13" t="n">
         <v>-3.36434311506105</v>
       </c>
     </row>
@@ -4717,10 +4163,10 @@
       <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="13" t="n">
         <v>-2.65360557420809</v>
       </c>
-      <c r="C6" s="14" t="n">
+      <c r="C6" s="13" t="n">
         <v>-9.16597855393775E-007</v>
       </c>
     </row>
@@ -4728,10 +4174,10 @@
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="14" t="n">
+      <c r="B7" s="13" t="n">
         <v>-4.47107599685342</v>
       </c>
-      <c r="C7" s="14" t="n">
+      <c r="C7" s="13" t="n">
         <v>-2.27373675443232E-013</v>
       </c>
     </row>
@@ -4739,10 +4185,10 @@
       <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="14" t="n">
+      <c r="B8" s="13" t="n">
         <v>-57.7519418492923</v>
       </c>
-      <c r="C8" s="14" t="n">
+      <c r="C8" s="13" t="n">
         <v>-44.1664298922258</v>
       </c>
     </row>
@@ -4750,10 +4196,10 @@
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="14" t="n">
+      <c r="B9" s="13" t="n">
         <v>-18.758533835442</v>
       </c>
-      <c r="C9" s="14" t="n">
+      <c r="C9" s="13" t="n">
         <v>-1.90457512871944E-007</v>
       </c>
     </row>
@@ -4761,10 +4207,10 @@
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="14" t="n">
+      <c r="B10" s="13" t="n">
         <v>-23.4753886782314</v>
       </c>
-      <c r="C10" s="14" t="n">
+      <c r="C10" s="13" t="n">
         <v>-4.01116348408095</v>
       </c>
     </row>
@@ -4772,10 +4218,10 @@
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="14" t="n">
+      <c r="B11" s="13" t="n">
         <v>-17.5085881670439</v>
       </c>
-      <c r="C11" s="14" t="n">
+      <c r="C11" s="13" t="n">
         <v>-1.13686837721616E-012</v>
       </c>
     </row>
@@ -4783,10 +4229,10 @@
       <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="13" t="n">
+      <c r="B12" s="12" t="n">
         <v>-1000</v>
       </c>
-      <c r="C12" s="13" t="n">
+      <c r="C12" s="12" t="n">
         <v>-1000</v>
       </c>
     </row>
@@ -4802,7 +4248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4825,21 +4271,21 @@
       <c r="A1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>94</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="16" t="n">
+      <c r="B2" s="15" t="n">
         <v>2E-005</v>
       </c>
-      <c r="C2" s="16" t="n">
+      <c r="C2" s="15" t="n">
         <v>7.5E-005</v>
       </c>
     </row>
@@ -4847,10 +4293,10 @@
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="16" t="n">
+      <c r="B3" s="15" t="n">
         <v>0.001</v>
       </c>
-      <c r="C3" s="16" t="n">
+      <c r="C3" s="15" t="n">
         <v>0.001</v>
       </c>
     </row>
@@ -4858,10 +4304,10 @@
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="16" t="n">
+      <c r="B4" s="15" t="n">
         <v>0.001</v>
       </c>
-      <c r="C4" s="16" t="n">
+      <c r="C4" s="15" t="n">
         <v>0.005</v>
       </c>
     </row>
@@ -4869,10 +4315,10 @@
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16" t="n">
+      <c r="B5" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4880,10 +4326,10 @@
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="16" t="n">
+      <c r="B6" s="15" t="n">
         <v>5E-005</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="15" t="n">
         <v>0.00017</v>
       </c>
     </row>
@@ -4891,10 +4337,10 @@
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="16" t="n">
+      <c r="B7" s="15" t="n">
         <v>0.001</v>
       </c>
-      <c r="C7" s="16" t="n">
+      <c r="C7" s="15" t="n">
         <v>0.005</v>
       </c>
     </row>
@@ -4902,21 +4348,21 @@
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="16" t="n">
+      <c r="B8" s="15" t="n">
         <v>0.001</v>
       </c>
-      <c r="C8" s="16" t="n">
+      <c r="C8" s="15" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="16" t="n">
+        <v>89</v>
+      </c>
+      <c r="B9" s="15" t="n">
         <v>0.001</v>
       </c>
-      <c r="C9" s="16" t="n">
+      <c r="C9" s="15" t="n">
         <v>0.005</v>
       </c>
     </row>
@@ -4924,21 +4370,21 @@
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="16" t="n">
+      <c r="B10" s="15" t="n">
         <v>3E-006</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="15" t="n">
         <v>4E-005</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="17" t="n">
+        <v>90</v>
+      </c>
+      <c r="B11" s="16" t="n">
         <v>0.001</v>
       </c>
-      <c r="C11" s="17" t="n">
+      <c r="C11" s="16" t="n">
         <v>0.005</v>
       </c>
     </row>
@@ -4946,10 +4392,10 @@
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="17" t="n">
+      <c r="B12" s="16" t="n">
         <v>1E-006</v>
       </c>
-      <c r="C12" s="17" t="n">
+      <c r="C12" s="16" t="n">
         <v>0.0001</v>
       </c>
     </row>
@@ -4957,10 +4403,10 @@
       <c r="A13" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="17" t="n">
+      <c r="B13" s="16" t="n">
         <v>0.0012</v>
       </c>
-      <c r="C13" s="17" t="n">
+      <c r="C13" s="16" t="n">
         <v>0.0018</v>
       </c>
     </row>
@@ -4968,10 +4414,10 @@
       <c r="A14" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="17" t="n">
+      <c r="B14" s="16" t="n">
         <v>3E-006</v>
       </c>
-      <c r="C14" s="17" t="n">
+      <c r="C14" s="16" t="n">
         <v>6E-006</v>
       </c>
     </row>
@@ -4979,10 +4425,10 @@
       <c r="A15" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="17" t="n">
+      <c r="B15" s="16" t="n">
         <v>4E-007</v>
       </c>
-      <c r="C15" s="17" t="n">
+      <c r="C15" s="16" t="n">
         <v>5E-005</v>
       </c>
     </row>
@@ -4990,10 +4436,10 @@
       <c r="A16" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="17" t="n">
+      <c r="B16" s="16" t="n">
         <v>1E-006</v>
       </c>
-      <c r="C16" s="17" t="n">
+      <c r="C16" s="16" t="n">
         <v>1.6E-005</v>
       </c>
     </row>
@@ -5001,10 +4447,10 @@
       <c r="A17" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="17" t="n">
+      <c r="B17" s="16" t="n">
         <v>4E-006</v>
       </c>
-      <c r="C17" s="17" t="n">
+      <c r="C17" s="16" t="n">
         <v>8E-006</v>
       </c>
     </row>
@@ -5012,10 +4458,10 @@
       <c r="A18" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="17" t="n">
+      <c r="B18" s="16" t="n">
         <v>0.00022</v>
       </c>
-      <c r="C18" s="17" t="n">
+      <c r="C18" s="16" t="n">
         <v>0.0073</v>
       </c>
     </row>
@@ -5023,10 +4469,10 @@
       <c r="A19" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="17" t="n">
+      <c r="B19" s="16" t="n">
         <v>1E-005</v>
       </c>
-      <c r="C19" s="17" t="n">
+      <c r="C19" s="16" t="n">
         <v>0.00025</v>
       </c>
     </row>
@@ -5034,10 +4480,10 @@
       <c r="A20" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="17" t="n">
+      <c r="B20" s="16" t="n">
         <v>0.00014</v>
       </c>
-      <c r="C20" s="17" t="n">
+      <c r="C20" s="16" t="n">
         <v>0.0018</v>
       </c>
     </row>
@@ -5045,10 +4491,10 @@
       <c r="A21" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="17" t="n">
+      <c r="B21" s="16" t="n">
         <v>1E-006</v>
       </c>
-      <c r="C21" s="17" t="n">
+      <c r="C21" s="16" t="n">
         <v>0.0001</v>
       </c>
     </row>
@@ -5056,10 +4502,10 @@
       <c r="A22" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="17" t="n">
+      <c r="B22" s="16" t="n">
         <v>0.0002</v>
       </c>
-      <c r="C22" s="17" t="n">
+      <c r="C22" s="16" t="n">
         <v>0.0003</v>
       </c>
     </row>
@@ -5067,13 +4513,443 @@
       <c r="A23" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="17" t="n">
+      <c r="B23" s="16" t="n">
         <v>0.0002</v>
       </c>
-      <c r="C23" s="17" t="n">
+      <c r="C23" s="16" t="n">
         <v>0.0003</v>
       </c>
     </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="10" style="0" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="18" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="19" t="n">
+        <v>0.1382</v>
+      </c>
+      <c r="C2" s="20" t="n">
+        <f aca="false">0.15*B2</f>
+        <v>0.02073</v>
+      </c>
+      <c r="D2" s="19" t="n">
+        <v>0.1325</v>
+      </c>
+      <c r="E2" s="20" t="n">
+        <f aca="false">0.15*D2</f>
+        <v>0.019875</v>
+      </c>
+      <c r="F2" s="19" t="n">
+        <v>0.1347</v>
+      </c>
+      <c r="G2" s="20" t="n">
+        <f aca="false">0.15*F2</f>
+        <v>0.020205</v>
+      </c>
+      <c r="H2" s="19" t="n">
+        <v>0.1075</v>
+      </c>
+      <c r="I2" s="20" t="n">
+        <f aca="false">0.15*H2</f>
+        <v>0.016125</v>
+      </c>
+    </row>
+    <row r="3" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="19" t="n">
+        <v>0.8148</v>
+      </c>
+      <c r="C3" s="20" t="n">
+        <f aca="false">0.15*B3</f>
+        <v>0.12222</v>
+      </c>
+      <c r="D3" s="19" t="n">
+        <v>0.8687</v>
+      </c>
+      <c r="E3" s="20" t="n">
+        <f aca="false">0.15*D3</f>
+        <v>0.130305</v>
+      </c>
+      <c r="F3" s="19" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="G3" s="20" t="n">
+        <f aca="false">0.15*F3</f>
+        <v>0.1284</v>
+      </c>
+      <c r="H3" s="19" t="n">
+        <v>0.7304</v>
+      </c>
+      <c r="I3" s="20" t="n">
+        <f aca="false">0.15*H3</f>
+        <v>0.10956</v>
+      </c>
+    </row>
+    <row r="4" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="19" t="n">
+        <v>0.2491</v>
+      </c>
+      <c r="C4" s="20" t="n">
+        <f aca="false">0.15*B4</f>
+        <v>0.037365</v>
+      </c>
+      <c r="D4" s="19" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="E4" s="20" t="n">
+        <f aca="false">0.15*D4</f>
+        <v>0.0237</v>
+      </c>
+      <c r="F4" s="19" t="n">
+        <v>0.1836</v>
+      </c>
+      <c r="G4" s="20" t="n">
+        <f aca="false">0.15*F4</f>
+        <v>0.02754</v>
+      </c>
+      <c r="H4" s="19" t="n">
+        <v>0.0578</v>
+      </c>
+      <c r="I4" s="20" t="n">
+        <f aca="false">0.15*H4</f>
+        <v>0.00867</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="19" t="n">
+        <v>1.0164</v>
+      </c>
+      <c r="C5" s="20" t="n">
+        <f aca="false">0.15*B5</f>
+        <v>0.15246</v>
+      </c>
+      <c r="D5" s="19" t="n">
+        <v>1.0037</v>
+      </c>
+      <c r="E5" s="20" t="n">
+        <f aca="false">0.15*D5</f>
+        <v>0.150555</v>
+      </c>
+      <c r="F5" s="19" t="n">
+        <v>0.9685</v>
+      </c>
+      <c r="G5" s="20" t="n">
+        <f aca="false">0.15*F5</f>
+        <v>0.145275</v>
+      </c>
+      <c r="H5" s="19" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I5" s="20" t="n">
+        <f aca="false">0.15*H5</f>
+        <v>0.11775</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="19" t="n">
+        <v>0.0475</v>
+      </c>
+      <c r="C6" s="20" t="n">
+        <f aca="false">0.15*B6</f>
+        <v>0.007125</v>
+      </c>
+      <c r="D6" s="19" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="E6" s="20" t="n">
+        <f aca="false">0.15*D6</f>
+        <v>0.00345</v>
+      </c>
+      <c r="F6" s="19" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="G6" s="20" t="n">
+        <f aca="false">0.15*F6</f>
+        <v>0.01065</v>
+      </c>
+      <c r="H6" s="19" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="I6" s="20" t="n">
+        <f aca="false">0.15*H6</f>
+        <v>0.000465</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="19" t="n">
+        <v>1.0639</v>
+      </c>
+      <c r="C7" s="20" t="n">
+        <f aca="false">0.15*B7</f>
+        <v>0.159585</v>
+      </c>
+      <c r="D7" s="19" t="n">
+        <v>1.0267</v>
+      </c>
+      <c r="E7" s="20" t="n">
+        <f aca="false">0.15*D7</f>
+        <v>0.154005</v>
+      </c>
+      <c r="F7" s="19" t="n">
+        <v>1.0396</v>
+      </c>
+      <c r="G7" s="20" t="n">
+        <f aca="false">0.15*F7</f>
+        <v>0.15594</v>
+      </c>
+      <c r="H7" s="19" t="n">
+        <v>0.7881</v>
+      </c>
+      <c r="I7" s="20" t="n">
+        <f aca="false">0.15*H7</f>
+        <v>0.118215</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="19" t="n">
+        <v>0.0852</v>
+      </c>
+      <c r="C8" s="20" t="n">
+        <f aca="false">0.15*B8</f>
+        <v>0.01278</v>
+      </c>
+      <c r="D8" s="19" t="n">
+        <v>0.0878</v>
+      </c>
+      <c r="E8" s="20" t="n">
+        <f aca="false">0.15*D8</f>
+        <v>0.01317</v>
+      </c>
+      <c r="F8" s="19" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="G8" s="20" t="n">
+        <f aca="false">0.15*F8</f>
+        <v>0.00315</v>
+      </c>
+      <c r="H8" s="19" t="n">
+        <v>0.1343</v>
+      </c>
+      <c r="I8" s="20" t="n">
+        <f aca="false">0.15*H8</f>
+        <v>0.020145</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="19" t="n">
+        <v>0.3556</v>
+      </c>
+      <c r="C9" s="20" t="n">
+        <f aca="false">0.15*B9</f>
+        <v>0.05334</v>
+      </c>
+      <c r="D9" s="19" t="n">
+        <v>0.3102</v>
+      </c>
+      <c r="E9" s="20" t="n">
+        <f aca="false">0.15*D9</f>
+        <v>0.04653</v>
+      </c>
+      <c r="F9" s="19" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="G9" s="20" t="n">
+        <f aca="false">0.15*F9</f>
+        <v>0.0588</v>
+      </c>
+      <c r="H9" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20" t="n">
+        <f aca="false">0.15*H9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="19" t="n">
+        <v>0.6231</v>
+      </c>
+      <c r="C10" s="20" t="n">
+        <f aca="false">0.15*B10</f>
+        <v>0.093465</v>
+      </c>
+      <c r="D10" s="19" t="n">
+        <v>0.6288</v>
+      </c>
+      <c r="E10" s="20" t="n">
+        <f aca="false">0.15*D10</f>
+        <v>0.09432</v>
+      </c>
+      <c r="F10" s="19" t="n">
+        <v>0.6266</v>
+      </c>
+      <c r="G10" s="20" t="n">
+        <f aca="false">0.15*F10</f>
+        <v>0.09399</v>
+      </c>
+      <c r="H10" s="19" t="n">
+        <v>0.6538</v>
+      </c>
+      <c r="I10" s="20" t="n">
+        <f aca="false">0.15*H10</f>
+        <v>0.09807</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="19" t="n">
+        <v>0.0852</v>
+      </c>
+      <c r="C11" s="20" t="n">
+        <f aca="false">0.15*B11</f>
+        <v>0.01278</v>
+      </c>
+      <c r="D11" s="19" t="n">
+        <v>0.0878</v>
+      </c>
+      <c r="E11" s="20" t="n">
+        <f aca="false">0.15*D11</f>
+        <v>0.01317</v>
+      </c>
+      <c r="F11" s="19" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="G11" s="20" t="n">
+        <f aca="false">0.15*F11</f>
+        <v>0.00315</v>
+      </c>
+      <c r="H11" s="19" t="n">
+        <v>0.1343</v>
+      </c>
+      <c r="I11" s="20" t="n">
+        <f aca="false">0.15*H11</f>
+        <v>0.020145</v>
+      </c>
+    </row>
+    <row r="12" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="19" t="n">
+        <v>0.7613</v>
+      </c>
+      <c r="C12" s="20" t="n">
+        <f aca="false">0.15*B12</f>
+        <v>0.114195</v>
+      </c>
+      <c r="D12" s="19" t="n">
+        <v>0.7613</v>
+      </c>
+      <c r="E12" s="20" t="n">
+        <f aca="false">0.15*D12</f>
+        <v>0.114195</v>
+      </c>
+      <c r="F12" s="19" t="n">
+        <v>0.7613</v>
+      </c>
+      <c r="G12" s="20" t="n">
+        <f aca="false">0.15*F12</f>
+        <v>0.114195</v>
+      </c>
+      <c r="H12" s="19" t="n">
+        <v>0.7613</v>
+      </c>
+      <c r="I12" s="20" t="n">
+        <f aca="false">0.15*H12</f>
+        <v>0.114195</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/methionine_cycle_atp_change.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/methionine_cycle_atp_change.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="154">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -606,7 +615,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -633,6 +642,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -722,8 +735,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -771,49 +784,49 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="n">
-        <v>1</v>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>0</v>
@@ -821,14 +834,28 @@
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -849,7 +876,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="1" sqref="A6:B7 H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -864,391 +891,391 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="7.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="5" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="11" style="7" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="7" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="11" style="8" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="8" width="8.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>109</v>
+      <c r="J1" s="18" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="9" t="n">
+        <v>42</v>
+      </c>
+      <c r="B2" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C2" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="n">
+      <c r="C2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E2" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F2" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9" t="n">
+      <c r="F2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H2" s="9" t="n">
+      <c r="H2" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I2" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="9" t="n">
+      <c r="I2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="9" t="n">
+        <v>43</v>
+      </c>
+      <c r="B3" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="n">
+      <c r="C3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9" t="n">
+      <c r="F3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H3" s="9" t="n">
+      <c r="H3" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="9" t="n">
+      <c r="I3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="9" t="n">
+        <v>44</v>
+      </c>
+      <c r="B4" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C4" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="n">
+      <c r="C4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F4" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9" t="n">
+      <c r="F4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H4" s="9" t="n">
+      <c r="H4" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I4" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9" t="n">
+      <c r="I4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="B5" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9" t="n">
+      <c r="C5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9" t="n">
+      <c r="F5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H5" s="9" t="n">
+      <c r="H5" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9" t="n">
+      <c r="I5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="B6" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="n">
+      <c r="C6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9" t="n">
+      <c r="F6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H6" s="9" t="n">
+      <c r="H6" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="9" t="n">
+      <c r="I6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="9" t="n">
+        <v>47</v>
+      </c>
+      <c r="B7" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C7" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9" t="n">
+      <c r="C7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F7" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9" t="n">
+      <c r="F7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H7" s="9" t="n">
+      <c r="H7" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I7" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9" t="n">
+      <c r="I7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="9" t="n">
+        <v>48</v>
+      </c>
+      <c r="B8" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9" t="n">
+      <c r="C8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9" t="n">
+      <c r="F8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H8" s="9" t="n">
+      <c r="H8" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="9" t="n">
+      <c r="I8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="9" t="n">
+        <v>49</v>
+      </c>
+      <c r="B9" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="n">
+      <c r="C9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9" t="n">
+      <c r="F9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9" t="n">
+      <c r="H9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="B10" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9" t="n">
+      <c r="F10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H10" s="9" t="n">
+      <c r="H10" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="9" t="n">
+      <c r="I10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="9" t="n">
+        <v>51</v>
+      </c>
+      <c r="B11" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9" t="n">
+      <c r="C11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="10" t="n">
         <v>0.2</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="10" t="n">
         <v>0.2</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="10" t="n">
         <v>0.2</v>
       </c>
-      <c r="H11" s="9" t="n">
+      <c r="H11" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="9" t="n">
+      <c r="I11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="9" t="n">
+        <v>52</v>
+      </c>
+      <c r="B12" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9" t="n">
+      <c r="C12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E12" s="9" t="n">
+      <c r="E12" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9" t="n">
+      <c r="F12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H12" s="9" t="n">
+      <c r="H12" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="9" t="n">
+      <c r="I12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1276,7 +1303,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+      <selection pane="topLeft" activeCell="K5" activeCellId="1" sqref="A6:B7 K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1294,738 +1321,738 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>109</v>
+      <c r="J1" s="18" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="21" t="n">
+      <c r="A2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="22" t="n">
         <v>0.9</v>
       </c>
-      <c r="C2" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="21" t="n">
+      <c r="C2" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22" t="n">
         <v>1.1</v>
       </c>
-      <c r="E2" s="21" t="n">
+      <c r="E2" s="22" t="n">
         <v>0.9</v>
       </c>
-      <c r="F2" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="21" t="n">
+      <c r="F2" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="22" t="n">
         <v>1.1</v>
       </c>
-      <c r="H2" s="21" t="n">
+      <c r="H2" s="22" t="n">
         <v>0.9</v>
       </c>
-      <c r="I2" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="21" t="n">
+      <c r="I2" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="22" t="n">
         <v>1.1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="21" t="n">
+      <c r="A3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="C3" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="21" t="n">
+      <c r="C3" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="21" t="n">
+      <c r="E3" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="F3" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="21" t="n">
+      <c r="F3" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="H3" s="21" t="n">
+      <c r="H3" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="I3" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="21" t="n">
+      <c r="I3" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="22" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="21" t="n">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="C4" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21" t="n">
+      <c r="C4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="E4" s="21" t="n">
+      <c r="E4" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="F4" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="21" t="n">
+      <c r="F4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="H4" s="21" t="n">
+      <c r="H4" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="I4" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="21" t="n">
+      <c r="I4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="22" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="21" t="n">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="C5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="21" t="n">
+      <c r="C5" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="21" t="n">
+      <c r="E5" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="F5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="21" t="n">
+      <c r="F5" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="H5" s="21" t="n">
+      <c r="H5" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="I5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="21" t="n">
+      <c r="I5" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="22" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="21" t="n">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="21" t="n">
+      <c r="A7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="21" t="n">
+      <c r="A8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="21" t="n">
+      <c r="A9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="21" t="n">
+      <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="C10" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="21" t="n">
+      <c r="C10" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="E10" s="21" t="n">
+      <c r="E10" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="F10" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="21" t="n">
+      <c r="F10" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="H10" s="21" t="n">
+      <c r="H10" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="I10" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="21" t="n">
+      <c r="I10" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="22" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="21" t="n">
+      <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="C11" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="21" t="n">
+      <c r="C11" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="21" t="n">
+      <c r="E11" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="F11" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="21" t="n">
+      <c r="F11" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="H11" s="21" t="n">
+      <c r="H11" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="I11" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="21" t="n">
+      <c r="I11" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="22" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="21" t="n">
+      <c r="A12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="21" t="n">
+      <c r="A13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="21" t="n">
+      <c r="A14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="21" t="n">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="21" t="n">
+      <c r="A16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="21" t="n">
+      <c r="A17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="21" t="n">
+      <c r="A18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="21" t="n">
+      <c r="A19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="21" t="n">
+      <c r="A20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="21" t="n">
+      <c r="A21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="21" t="n">
+      <c r="A22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="21" t="n">
+      <c r="A23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2048,76 +2075,76 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="A6:B7 B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="33.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="13.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="11.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="8.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="7" width="14.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="14.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="7" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="7" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="7" width="80.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="9.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="33.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="13.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="11.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="11.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="8.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="8" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="14.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="8" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="7.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="8" width="80.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="A1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>120</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2131,21 +2158,21 @@
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2158,25 +2185,25 @@
       <c r="K3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="22" t="s">
-        <v>125</v>
+      <c r="L3" s="23" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>41</v>
+      <c r="A4" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>1</v>
@@ -2184,25 +2211,25 @@
       <c r="K4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="23" t="s">
-        <v>125</v>
+      <c r="L4" s="24" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>26</v>
+      <c r="A5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>0</v>
@@ -2210,22 +2237,22 @@
       <c r="K5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="23" t="s">
-        <v>129</v>
+      <c r="L5" s="24" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>132</v>
+      <c r="A6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>1</v>
@@ -2233,45 +2260,45 @@
       <c r="K6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>138</v>
+      <c r="C8" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="J8" s="1" t="n">
         <v>0</v>
@@ -2279,22 +2306,22 @@
       <c r="K8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L8" s="23" t="s">
-        <v>139</v>
+      <c r="L8" s="24" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>141</v>
+      <c r="A9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>0</v>
@@ -2302,25 +2329,25 @@
       <c r="K9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L9" s="23" t="s">
-        <v>142</v>
+      <c r="L9" s="24" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>20</v>
+      <c r="A10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="n">
         <v>1</v>
@@ -2328,25 +2355,25 @@
       <c r="K10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="23" t="s">
-        <v>144</v>
+      <c r="L10" s="24" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>20</v>
+      <c r="A11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="n">
         <v>1</v>
@@ -2354,16 +2381,16 @@
       <c r="K11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L11" s="23" t="s">
-        <v>148</v>
+      <c r="L11" s="24" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2379,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2404,7 +2431,7 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="A6:B7 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2415,10 +2442,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="7" width="3.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="3.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="7" width="3.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="8" width="3.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="3.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="8" width="3.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="6.58"/>
@@ -2436,78 +2463,78 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="H1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0</v>
@@ -2524,16 +2551,16 @@
       <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7" t="n">
+      <c r="G2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="0" t="n">
@@ -2578,7 +2605,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>-1</v>
@@ -2595,16 +2622,16 @@
       <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7" t="n">
+      <c r="G3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="0" t="n">
@@ -2649,7 +2676,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>-1</v>
@@ -2666,16 +2693,16 @@
       <c r="F4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="n">
+      <c r="G4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="0" t="n">
@@ -2720,7 +2747,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0</v>
@@ -2737,16 +2764,16 @@
       <c r="F5" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="G5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="n">
+      <c r="G5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="0" t="n">
@@ -2791,7 +2818,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0</v>
@@ -2808,16 +2835,16 @@
       <c r="F6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7" t="n">
+      <c r="G6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="J6" s="7" t="n">
+      <c r="J6" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="0" t="n">
@@ -2862,7 +2889,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0</v>
@@ -2879,16 +2906,16 @@
       <c r="F7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="n">
+      <c r="G7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K7" s="0" t="n">
@@ -2933,7 +2960,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>0</v>
@@ -2950,16 +2977,16 @@
       <c r="F8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="n">
+      <c r="G8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8" t="n">
         <v>-1</v>
       </c>
       <c r="K8" s="0" t="n">
@@ -3004,7 +3031,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0</v>
@@ -3021,16 +3048,16 @@
       <c r="F9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="n">
+      <c r="G9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8" t="n">
         <v>-1</v>
       </c>
       <c r="K9" s="0" t="n">
@@ -3075,7 +3102,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>0</v>
@@ -3092,16 +3119,16 @@
       <c r="F10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="n">
+      <c r="G10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8" t="n">
         <v>-1</v>
       </c>
       <c r="K10" s="0" t="n">
@@ -3146,7 +3173,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>0</v>
@@ -3163,16 +3190,16 @@
       <c r="F11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="n">
+      <c r="G11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
@@ -3217,7 +3244,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0</v>
@@ -3234,16 +3261,16 @@
       <c r="F12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="n">
+      <c r="G12" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="0" t="n">
@@ -3306,273 +3333,273 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="30.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="11.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="30.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1009" min="5" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="1010" style="0" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>52</v>
+      <c r="A1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>17</v>
+      <c r="A2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>53</v>
+      <c r="A3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>54</v>
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>55</v>
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>56</v>
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>57</v>
+      <c r="A7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>58</v>
+      <c r="A8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>59</v>
+      <c r="A9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>60</v>
+      <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>61</v>
+      <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>62</v>
+      <c r="A12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>28</v>
+      <c r="A13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>63</v>
+      <c r="A14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>64</v>
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>65</v>
+      <c r="A16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>66</v>
+      <c r="A17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>67</v>
+      <c r="A18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>68</v>
+      <c r="A19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>35</v>
+      <c r="A20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>36</v>
+      <c r="A21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>69</v>
+      <c r="A22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>70</v>
+      <c r="A23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>0</v>
@@ -3597,151 +3624,151 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="43.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="16.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="10.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="5" style="7" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="9.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="43.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="16.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="5" style="8" width="8.6"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
+      <c r="B1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="7" t="n">
+      <c r="A2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="7" t="n">
+      <c r="A3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="7" t="n">
+      <c r="A4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="7" t="n">
+      <c r="A5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="7" t="n">
+      <c r="A6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="7" t="n">
+      <c r="A7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="7" t="n">
+      <c r="A8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="7" t="n">
+      <c r="A9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="7" t="n">
+      <c r="A10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="7" t="n">
+      <c r="A11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="7" t="n">
+      <c r="A12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,8 +3790,8 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3776,148 +3803,148 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>88</v>
+      <c r="A1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>17</v>
+      <c r="A2" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
+      <c r="A3" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
+      <c r="A4" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
+      <c r="A5" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>89</v>
+      <c r="A6" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>90</v>
+      <c r="A7" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
+      <c r="A9" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>25</v>
+      <c r="A10" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>26</v>
+      <c r="A11" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>27</v>
+      <c r="A12" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>28</v>
+      <c r="A13" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>29</v>
+      <c r="A14" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>30</v>
+      <c r="A15" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>31</v>
+      <c r="A16" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>32</v>
+      <c r="A17" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>33</v>
+      <c r="A18" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>34</v>
+      <c r="A19" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>35</v>
+      <c r="A20" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>36</v>
+      <c r="A21" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>37</v>
+      <c r="A22" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>38</v>
+      <c r="A23" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3939,7 +3966,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="A6:B7 A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3951,127 +3978,127 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>88</v>
+      <c r="A1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>17</v>
+      <c r="A2" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
+      <c r="A3" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
+      <c r="A4" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
+      <c r="A5" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>89</v>
+      <c r="A6" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>90</v>
+      <c r="A7" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>23</v>
+      <c r="A8" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
+      <c r="A9" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>25</v>
+      <c r="A10" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>26</v>
+      <c r="A11" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>27</v>
+      <c r="A12" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>28</v>
+      <c r="A13" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>29</v>
+      <c r="A14" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>30</v>
+      <c r="A15" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>31</v>
+      <c r="A16" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>32</v>
+      <c r="A17" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>33</v>
+      <c r="A18" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>34</v>
+      <c r="A19" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>35</v>
+      <c r="A20" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>36</v>
+      <c r="A21" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>37</v>
+      <c r="A22" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>38</v>
+      <c r="A23" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4093,7 +4120,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="A6:B7 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4106,133 +4133,133 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12" t="n">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13" t="n">
         <v>-50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="12" t="n">
+        <v>43</v>
+      </c>
+      <c r="B3" s="13" t="n">
         <v>-133.737743483803</v>
       </c>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="13" t="n">
         <v>-115.839227967117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="13" t="n">
+        <v>44</v>
+      </c>
+      <c r="B4" s="14" t="n">
         <v>-133.737743483803</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="14" t="n">
         <v>-115.839227967117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="13" t="n">
+        <v>45</v>
+      </c>
+      <c r="B5" s="14" t="n">
         <v>-13.9969595717307</v>
       </c>
-      <c r="C5" s="13" t="n">
+      <c r="C5" s="14" t="n">
         <v>-3.36434311506105</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="13" t="n">
+        <v>46</v>
+      </c>
+      <c r="B6" s="14" t="n">
         <v>-2.65360557420809</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="14" t="n">
         <v>-9.16597855393775E-007</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="13" t="n">
+        <v>47</v>
+      </c>
+      <c r="B7" s="14" t="n">
         <v>-4.47107599685342</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="14" t="n">
         <v>-2.27373675443232E-013</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="13" t="n">
+        <v>48</v>
+      </c>
+      <c r="B8" s="14" t="n">
         <v>-57.7519418492923</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="14" t="n">
         <v>-44.1664298922258</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="B9" s="14" t="n">
         <v>-18.758533835442</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="14" t="n">
         <v>-1.90457512871944E-007</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="B10" s="14" t="n">
         <v>-23.4753886782314</v>
       </c>
-      <c r="C10" s="13" t="n">
+      <c r="C10" s="14" t="n">
         <v>-4.01116348408095</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="13" t="n">
+        <v>51</v>
+      </c>
+      <c r="B11" s="14" t="n">
         <v>-17.5085881670439</v>
       </c>
-      <c r="C11" s="13" t="n">
+      <c r="C11" s="14" t="n">
         <v>-1.13686837721616E-012</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="12" t="n">
+        <v>52</v>
+      </c>
+      <c r="B12" s="13" t="n">
         <v>-1000</v>
       </c>
-      <c r="C12" s="12" t="n">
+      <c r="C12" s="13" t="n">
         <v>-1000</v>
       </c>
     </row>
@@ -4256,7 +4283,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="1" sqref="A6:B7 A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4268,255 +4295,255 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>94</v>
+      <c r="A1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2" s="16" t="n">
         <v>2E-005</v>
       </c>
-      <c r="C2" s="15" t="n">
+      <c r="C2" s="16" t="n">
         <v>7.5E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="15" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3" s="16" t="n">
         <v>0.001</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="16" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="B4" s="16" t="n">
         <v>0.001</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="16" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15" t="n">
+        <v>37</v>
+      </c>
+      <c r="B5" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="15" t="n">
+        <v>23</v>
+      </c>
+      <c r="B6" s="16" t="n">
         <v>5E-005</v>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C6" s="16" t="n">
         <v>0.00017</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="B7" s="16" t="n">
         <v>0.001</v>
       </c>
-      <c r="C7" s="15" t="n">
+      <c r="C7" s="16" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="15" t="n">
+        <v>41</v>
+      </c>
+      <c r="B8" s="16" t="n">
         <v>0.001</v>
       </c>
-      <c r="C8" s="15" t="n">
+      <c r="C8" s="16" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="15" t="n">
+        <v>92</v>
+      </c>
+      <c r="B9" s="16" t="n">
         <v>0.001</v>
       </c>
-      <c r="C9" s="15" t="n">
+      <c r="C9" s="16" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="15" t="n">
+        <v>22</v>
+      </c>
+      <c r="B10" s="16" t="n">
         <v>3E-006</v>
       </c>
-      <c r="C10" s="15" t="n">
+      <c r="C10" s="16" t="n">
         <v>4E-005</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="16" t="n">
+        <v>93</v>
+      </c>
+      <c r="B11" s="17" t="n">
         <v>0.001</v>
       </c>
-      <c r="C11" s="16" t="n">
+      <c r="C11" s="17" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="B12" s="17" t="n">
         <v>1E-006</v>
       </c>
-      <c r="C12" s="16" t="n">
+      <c r="C12" s="17" t="n">
         <v>0.0001</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="16" t="n">
+        <v>27</v>
+      </c>
+      <c r="B13" s="17" t="n">
         <v>0.0012</v>
       </c>
-      <c r="C13" s="16" t="n">
+      <c r="C13" s="17" t="n">
         <v>0.0018</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="16" t="n">
+        <v>28</v>
+      </c>
+      <c r="B14" s="17" t="n">
         <v>3E-006</v>
       </c>
-      <c r="C14" s="16" t="n">
+      <c r="C14" s="17" t="n">
         <v>6E-006</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="16" t="n">
+        <v>35</v>
+      </c>
+      <c r="B15" s="17" t="n">
         <v>4E-007</v>
       </c>
-      <c r="C15" s="16" t="n">
+      <c r="C15" s="17" t="n">
         <v>5E-005</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="16" t="n">
+        <v>29</v>
+      </c>
+      <c r="B16" s="17" t="n">
         <v>1E-006</v>
       </c>
-      <c r="C16" s="16" t="n">
+      <c r="C16" s="17" t="n">
         <v>1.6E-005</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="16" t="n">
+        <v>30</v>
+      </c>
+      <c r="B17" s="17" t="n">
         <v>4E-006</v>
       </c>
-      <c r="C17" s="16" t="n">
+      <c r="C17" s="17" t="n">
         <v>8E-006</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="16" t="n">
+        <v>31</v>
+      </c>
+      <c r="B18" s="17" t="n">
         <v>0.00022</v>
       </c>
-      <c r="C18" s="16" t="n">
+      <c r="C18" s="17" t="n">
         <v>0.0073</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="16" t="n">
+        <v>32</v>
+      </c>
+      <c r="B19" s="17" t="n">
         <v>1E-005</v>
       </c>
-      <c r="C19" s="16" t="n">
+      <c r="C19" s="17" t="n">
         <v>0.00025</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="16" t="n">
+        <v>33</v>
+      </c>
+      <c r="B20" s="17" t="n">
         <v>0.00014</v>
       </c>
-      <c r="C20" s="16" t="n">
+      <c r="C20" s="17" t="n">
         <v>0.0018</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="16" t="n">
+        <v>34</v>
+      </c>
+      <c r="B21" s="17" t="n">
         <v>1E-006</v>
       </c>
-      <c r="C21" s="16" t="n">
+      <c r="C21" s="17" t="n">
         <v>0.0001</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="16" t="n">
+        <v>39</v>
+      </c>
+      <c r="B22" s="17" t="n">
         <v>0.0002</v>
       </c>
-      <c r="C22" s="16" t="n">
+      <c r="C22" s="17" t="n">
         <v>0.0003</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="16" t="n">
+        <v>38</v>
+      </c>
+      <c r="B23" s="17" t="n">
         <v>0.0002</v>
       </c>
-      <c r="C23" s="16" t="n">
+      <c r="C23" s="17" t="n">
         <v>0.0003</v>
       </c>
     </row>
@@ -4539,7 +4566,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="A6:B7 B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4557,394 +4584,394 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="17" t="s">
+    <row r="1" s="19" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="C1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="19" t="n">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="n">
         <v>0.1382</v>
       </c>
-      <c r="C2" s="20" t="n">
+      <c r="C2" s="21" t="n">
         <f aca="false">0.15*B2</f>
         <v>0.02073</v>
       </c>
-      <c r="D2" s="19" t="n">
+      <c r="D2" s="20" t="n">
         <v>0.1325</v>
       </c>
-      <c r="E2" s="20" t="n">
+      <c r="E2" s="21" t="n">
         <f aca="false">0.15*D2</f>
         <v>0.019875</v>
       </c>
-      <c r="F2" s="19" t="n">
+      <c r="F2" s="20" t="n">
         <v>0.1347</v>
       </c>
-      <c r="G2" s="20" t="n">
+      <c r="G2" s="21" t="n">
         <f aca="false">0.15*F2</f>
         <v>0.020205</v>
       </c>
-      <c r="H2" s="19" t="n">
+      <c r="H2" s="20" t="n">
         <v>0.1075</v>
       </c>
-      <c r="I2" s="20" t="n">
+      <c r="I2" s="21" t="n">
         <f aca="false">0.15*H2</f>
         <v>0.016125</v>
       </c>
     </row>
-    <row r="3" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="19" t="n">
+        <v>43</v>
+      </c>
+      <c r="B3" s="20" t="n">
         <v>0.8148</v>
       </c>
-      <c r="C3" s="20" t="n">
+      <c r="C3" s="21" t="n">
         <f aca="false">0.15*B3</f>
         <v>0.12222</v>
       </c>
-      <c r="D3" s="19" t="n">
+      <c r="D3" s="20" t="n">
         <v>0.8687</v>
       </c>
-      <c r="E3" s="20" t="n">
+      <c r="E3" s="21" t="n">
         <f aca="false">0.15*D3</f>
         <v>0.130305</v>
       </c>
-      <c r="F3" s="19" t="n">
+      <c r="F3" s="20" t="n">
         <v>0.856</v>
       </c>
-      <c r="G3" s="20" t="n">
+      <c r="G3" s="21" t="n">
         <f aca="false">0.15*F3</f>
         <v>0.1284</v>
       </c>
-      <c r="H3" s="19" t="n">
+      <c r="H3" s="20" t="n">
         <v>0.7304</v>
       </c>
-      <c r="I3" s="20" t="n">
+      <c r="I3" s="21" t="n">
         <f aca="false">0.15*H3</f>
         <v>0.10956</v>
       </c>
     </row>
-    <row r="4" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="19" t="n">
+        <v>44</v>
+      </c>
+      <c r="B4" s="20" t="n">
         <v>0.2491</v>
       </c>
-      <c r="C4" s="20" t="n">
+      <c r="C4" s="21" t="n">
         <f aca="false">0.15*B4</f>
         <v>0.037365</v>
       </c>
-      <c r="D4" s="19" t="n">
+      <c r="D4" s="20" t="n">
         <v>0.158</v>
       </c>
-      <c r="E4" s="20" t="n">
+      <c r="E4" s="21" t="n">
         <f aca="false">0.15*D4</f>
         <v>0.0237</v>
       </c>
-      <c r="F4" s="19" t="n">
+      <c r="F4" s="20" t="n">
         <v>0.1836</v>
       </c>
-      <c r="G4" s="20" t="n">
+      <c r="G4" s="21" t="n">
         <f aca="false">0.15*F4</f>
         <v>0.02754</v>
       </c>
-      <c r="H4" s="19" t="n">
+      <c r="H4" s="20" t="n">
         <v>0.0578</v>
       </c>
-      <c r="I4" s="20" t="n">
+      <c r="I4" s="21" t="n">
         <f aca="false">0.15*H4</f>
         <v>0.00867</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="19" t="n">
+        <v>45</v>
+      </c>
+      <c r="B5" s="20" t="n">
         <v>1.0164</v>
       </c>
-      <c r="C5" s="20" t="n">
+      <c r="C5" s="21" t="n">
         <f aca="false">0.15*B5</f>
         <v>0.15246</v>
       </c>
-      <c r="D5" s="19" t="n">
+      <c r="D5" s="20" t="n">
         <v>1.0037</v>
       </c>
-      <c r="E5" s="20" t="n">
+      <c r="E5" s="21" t="n">
         <f aca="false">0.15*D5</f>
         <v>0.150555</v>
       </c>
-      <c r="F5" s="19" t="n">
+      <c r="F5" s="20" t="n">
         <v>0.9685</v>
       </c>
-      <c r="G5" s="20" t="n">
+      <c r="G5" s="21" t="n">
         <f aca="false">0.15*F5</f>
         <v>0.145275</v>
       </c>
-      <c r="H5" s="19" t="n">
+      <c r="H5" s="20" t="n">
         <v>0.785</v>
       </c>
-      <c r="I5" s="20" t="n">
+      <c r="I5" s="21" t="n">
         <f aca="false">0.15*H5</f>
         <v>0.11775</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="19" t="n">
+        <v>46</v>
+      </c>
+      <c r="B6" s="20" t="n">
         <v>0.0475</v>
       </c>
-      <c r="C6" s="20" t="n">
+      <c r="C6" s="21" t="n">
         <f aca="false">0.15*B6</f>
         <v>0.007125</v>
       </c>
-      <c r="D6" s="19" t="n">
+      <c r="D6" s="20" t="n">
         <v>0.023</v>
       </c>
-      <c r="E6" s="20" t="n">
+      <c r="E6" s="21" t="n">
         <f aca="false">0.15*D6</f>
         <v>0.00345</v>
       </c>
-      <c r="F6" s="19" t="n">
+      <c r="F6" s="20" t="n">
         <v>0.071</v>
       </c>
-      <c r="G6" s="20" t="n">
+      <c r="G6" s="21" t="n">
         <f aca="false">0.15*F6</f>
         <v>0.01065</v>
       </c>
-      <c r="H6" s="19" t="n">
+      <c r="H6" s="20" t="n">
         <v>0.0031</v>
       </c>
-      <c r="I6" s="20" t="n">
+      <c r="I6" s="21" t="n">
         <f aca="false">0.15*H6</f>
         <v>0.000465</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="19" t="n">
+        <v>47</v>
+      </c>
+      <c r="B7" s="20" t="n">
         <v>1.0639</v>
       </c>
-      <c r="C7" s="20" t="n">
+      <c r="C7" s="21" t="n">
         <f aca="false">0.15*B7</f>
         <v>0.159585</v>
       </c>
-      <c r="D7" s="19" t="n">
+      <c r="D7" s="20" t="n">
         <v>1.0267</v>
       </c>
-      <c r="E7" s="20" t="n">
+      <c r="E7" s="21" t="n">
         <f aca="false">0.15*D7</f>
         <v>0.154005</v>
       </c>
-      <c r="F7" s="19" t="n">
+      <c r="F7" s="20" t="n">
         <v>1.0396</v>
       </c>
-      <c r="G7" s="20" t="n">
+      <c r="G7" s="21" t="n">
         <f aca="false">0.15*F7</f>
         <v>0.15594</v>
       </c>
-      <c r="H7" s="19" t="n">
+      <c r="H7" s="20" t="n">
         <v>0.7881</v>
       </c>
-      <c r="I7" s="20" t="n">
+      <c r="I7" s="21" t="n">
         <f aca="false">0.15*H7</f>
         <v>0.118215</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="19" t="n">
+        <v>48</v>
+      </c>
+      <c r="B8" s="20" t="n">
         <v>0.0852</v>
       </c>
-      <c r="C8" s="20" t="n">
+      <c r="C8" s="21" t="n">
         <f aca="false">0.15*B8</f>
         <v>0.01278</v>
       </c>
-      <c r="D8" s="19" t="n">
+      <c r="D8" s="20" t="n">
         <v>0.0878</v>
       </c>
-      <c r="E8" s="20" t="n">
+      <c r="E8" s="21" t="n">
         <f aca="false">0.15*D8</f>
         <v>0.01317</v>
       </c>
-      <c r="F8" s="19" t="n">
+      <c r="F8" s="20" t="n">
         <v>0.021</v>
       </c>
-      <c r="G8" s="20" t="n">
+      <c r="G8" s="21" t="n">
         <f aca="false">0.15*F8</f>
         <v>0.00315</v>
       </c>
-      <c r="H8" s="19" t="n">
+      <c r="H8" s="20" t="n">
         <v>0.1343</v>
       </c>
-      <c r="I8" s="20" t="n">
+      <c r="I8" s="21" t="n">
         <f aca="false">0.15*H8</f>
         <v>0.020145</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="19" t="n">
+        <v>49</v>
+      </c>
+      <c r="B9" s="20" t="n">
         <v>0.3556</v>
       </c>
-      <c r="C9" s="20" t="n">
+      <c r="C9" s="21" t="n">
         <f aca="false">0.15*B9</f>
         <v>0.05334</v>
       </c>
-      <c r="D9" s="19" t="n">
+      <c r="D9" s="20" t="n">
         <v>0.3102</v>
       </c>
-      <c r="E9" s="20" t="n">
+      <c r="E9" s="21" t="n">
         <f aca="false">0.15*D9</f>
         <v>0.04653</v>
       </c>
-      <c r="F9" s="19" t="n">
+      <c r="F9" s="20" t="n">
         <v>0.392</v>
       </c>
-      <c r="G9" s="20" t="n">
+      <c r="G9" s="21" t="n">
         <f aca="false">0.15*F9</f>
         <v>0.0588</v>
       </c>
-      <c r="H9" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="20" t="n">
+      <c r="H9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21" t="n">
         <f aca="false">0.15*H9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="19" t="n">
+        <v>50</v>
+      </c>
+      <c r="B10" s="20" t="n">
         <v>0.6231</v>
       </c>
-      <c r="C10" s="20" t="n">
+      <c r="C10" s="21" t="n">
         <f aca="false">0.15*B10</f>
         <v>0.093465</v>
       </c>
-      <c r="D10" s="19" t="n">
+      <c r="D10" s="20" t="n">
         <v>0.6288</v>
       </c>
-      <c r="E10" s="20" t="n">
+      <c r="E10" s="21" t="n">
         <f aca="false">0.15*D10</f>
         <v>0.09432</v>
       </c>
-      <c r="F10" s="19" t="n">
+      <c r="F10" s="20" t="n">
         <v>0.6266</v>
       </c>
-      <c r="G10" s="20" t="n">
+      <c r="G10" s="21" t="n">
         <f aca="false">0.15*F10</f>
         <v>0.09399</v>
       </c>
-      <c r="H10" s="19" t="n">
+      <c r="H10" s="20" t="n">
         <v>0.6538</v>
       </c>
-      <c r="I10" s="20" t="n">
+      <c r="I10" s="21" t="n">
         <f aca="false">0.15*H10</f>
         <v>0.09807</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="19" t="n">
+        <v>51</v>
+      </c>
+      <c r="B11" s="20" t="n">
         <v>0.0852</v>
       </c>
-      <c r="C11" s="20" t="n">
+      <c r="C11" s="21" t="n">
         <f aca="false">0.15*B11</f>
         <v>0.01278</v>
       </c>
-      <c r="D11" s="19" t="n">
+      <c r="D11" s="20" t="n">
         <v>0.0878</v>
       </c>
-      <c r="E11" s="20" t="n">
+      <c r="E11" s="21" t="n">
         <f aca="false">0.15*D11</f>
         <v>0.01317</v>
       </c>
-      <c r="F11" s="19" t="n">
+      <c r="F11" s="20" t="n">
         <v>0.021</v>
       </c>
-      <c r="G11" s="20" t="n">
+      <c r="G11" s="21" t="n">
         <f aca="false">0.15*F11</f>
         <v>0.00315</v>
       </c>
-      <c r="H11" s="19" t="n">
+      <c r="H11" s="20" t="n">
         <v>0.1343</v>
       </c>
-      <c r="I11" s="20" t="n">
+      <c r="I11" s="21" t="n">
         <f aca="false">0.15*H11</f>
         <v>0.020145</v>
       </c>
     </row>
-    <row r="12" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="19" t="n">
+        <v>52</v>
+      </c>
+      <c r="B12" s="20" t="n">
         <v>0.7613</v>
       </c>
-      <c r="C12" s="20" t="n">
+      <c r="C12" s="21" t="n">
         <f aca="false">0.15*B12</f>
         <v>0.114195</v>
       </c>
-      <c r="D12" s="19" t="n">
+      <c r="D12" s="20" t="n">
         <v>0.7613</v>
       </c>
-      <c r="E12" s="20" t="n">
+      <c r="E12" s="21" t="n">
         <f aca="false">0.15*D12</f>
         <v>0.114195</v>
       </c>
-      <c r="F12" s="19" t="n">
+      <c r="F12" s="20" t="n">
         <v>0.7613</v>
       </c>
-      <c r="G12" s="20" t="n">
+      <c r="G12" s="21" t="n">
         <f aca="false">0.15*F12</f>
         <v>0.114195</v>
       </c>
-      <c r="H12" s="19" t="n">
+      <c r="H12" s="20" t="n">
         <v>0.7613</v>
       </c>
-      <c r="I12" s="20" t="n">
+      <c r="I12" s="21" t="n">
         <f aca="false">0.15*H12</f>
         <v>0.114195</v>
       </c>

--- a/matlab_code/tests/ensembleFxns/testFiles/methionine_cycle_atp_change.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/methionine_cycle_atp_change.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -735,8 +735,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -876,7 +876,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="1" sqref="A6:B7 H9"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1303,7 +1303,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="1" sqref="A6:B7 K5"/>
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2075,7 +2075,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="A6:B7 B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2431,7 +2431,7 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="A6:B7 A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3333,7 +3333,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3624,7 +3624,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3791,7 +3791,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3966,7 +3966,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="A6:B7 A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4119,8 +4119,8 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="A6:B7 C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4147,10 +4147,10 @@
         <v>42</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4283,7 +4283,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="1" sqref="A6:B7 A23"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4566,7 +4566,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="A6:B7 B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
